--- a/config_6.1/game_enter_btn_config.xlsx
+++ b/config_6.1/game_enter_btn_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="820" firstSheet="22" activeTab="27"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="22" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -442,7 +442,7 @@
     <t>101;11;93#</t>
   </si>
   <si>
-    <t>132#</t>
+    <t>120#</t>
   </si>
   <si>
     <t>all</t>
@@ -1369,9 +1369,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="宋体"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1381,38 +1384,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1426,14 +1399,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1455,11 +1434,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1495,6 +1473,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1504,18 +1490,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1560,43 +1560,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1620,7 +1584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1632,13 +1596,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1656,13 +1704,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1674,61 +1716,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1772,28 +1772,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1837,11 +1820,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1854,6 +1843,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1862,10 +1862,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1874,137 +1874,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -3455,8 +3455,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -3584,12 +3584,12 @@
   <sheetPr/>
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B115" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B111" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F142" sqref="F142"/>
+      <selection pane="bottomRight" activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>

--- a/config_6.1/game_enter_btn_config.xlsx
+++ b/config_6.1/game_enter_btn_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="22" activeTab="24"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="370">
   <si>
     <t>id|行号</t>
   </si>
@@ -212,7 +212,7 @@
     <t>|内容</t>
   </si>
   <si>
-    <t>3;116#2#139#8#122#61#137#9#117#134#138#</t>
+    <t>3;116#2#139#8#122#61#140#137#9#117#134#138#</t>
   </si>
   <si>
     <t>left</t>
@@ -1311,16 +1311,22 @@
   <si>
     <t>秒杀礼包-cjj</t>
   </si>
+  <si>
+    <t>"sys_txz",</t>
+  </si>
+  <si>
+    <t>通行证</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1369,11 +1375,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1385,7 +1390,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1393,26 +1405,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1431,6 +1423,14 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1475,14 +1475,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1497,6 +1498,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1504,18 +1512,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1560,7 +1566,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1578,49 +1638,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1632,7 +1662,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1644,49 +1674,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1704,7 +1692,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1716,19 +1704,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1772,11 +1778,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1796,17 +1808,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1815,7 +1821,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1837,20 +1843,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1862,10 +1868,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1874,34 +1880,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1910,103 +1919,100 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2053,6 +2059,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2420,12 +2429,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2440,57 +2449,57 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="17">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="17">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="17">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2528,25 +2537,25 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2577,13 +2586,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2604,12 +2613,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2624,24 +2633,24 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2678,18 +2687,18 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2720,24 +2729,24 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2758,12 +2767,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2778,13 +2787,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2806,12 +2815,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2826,13 +2835,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2869,13 +2878,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2916,18 +2925,18 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2938,7 +2947,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="17">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -2950,7 +2959,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="17">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2961,7 +2970,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="17">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2972,7 +2981,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="17">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -2983,7 +2992,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="17">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -2994,7 +3003,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="22">
+      <c r="A9" s="23">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -3041,13 +3050,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3121,7 +3130,7 @@
       <c r="C9" s="5"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="16.5" spans="2:3">
-      <c r="B10" s="21"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="12"/>
     </row>
     <row r="11" spans="3:3">
@@ -3145,12 +3154,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -3165,61 +3174,61 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="17">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="17">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="20"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="17">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" ht="15"/>
     <row r="18" ht="15.75" spans="10:10">
-      <c r="J18" s="27"/>
+      <c r="J18" s="28"/>
     </row>
     <row r="19" ht="15"/>
   </sheetData>
@@ -3252,13 +3261,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3291,13 +3300,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3330,13 +3339,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3370,13 +3379,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3412,29 +3421,29 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="20">
+      <c r="A4" s="21">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -3455,8 +3464,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -3582,14 +3591,14 @@
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F140"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B111" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B90" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F121" sqref="F121"/>
+      <selection pane="bottomRight" activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -6071,6 +6080,26 @@
       </c>
       <c r="F140" s="5" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="141" ht="15.75" spans="1:6">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141" t="s">
+        <v>365</v>
+      </c>
+      <c r="E141">
+        <v>140</v>
+      </c>
+      <c r="F141" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -6107,53 +6136,53 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="17">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="17">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="20"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="22">
+      <c r="A6" s="23">
         <v>5</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6174,12 +6203,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -6194,55 +6223,55 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="17">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="17">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="17">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6269,7 +6298,7 @@
     <col min="3" max="3" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" s="24" customFormat="1" ht="35.25" customHeight="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6308,12 +6337,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -6328,13 +6357,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6368,12 +6397,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -6388,44 +6417,44 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="17">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:3">
-      <c r="A5" s="17">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="26" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6441,18 +6470,18 @@
   <sheetPr/>
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="43.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="43.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:5">
@@ -6473,13 +6502,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="5">
@@ -6492,13 +6521,13 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="17">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="5">
@@ -6515,13 +6544,13 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="17">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="5">
@@ -6534,13 +6563,13 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="17">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>44</v>
       </c>
       <c r="D5" s="5">
@@ -6554,13 +6583,13 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="17">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="5">
@@ -6573,13 +6602,13 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="17">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="26" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="5">
@@ -6592,13 +6621,13 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="17">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="26" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="5">
@@ -6611,13 +6640,13 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="17">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="26" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="5">
@@ -6630,7 +6659,7 @@
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="18"/>
+      <c r="B10" s="19"/>
       <c r="D10" s="5">
         <f>'all_enter|所有按钮入口'!E10</f>
         <v>9</v>
@@ -6641,8 +6670,8 @@
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="5">
         <f>'all_enter|所有按钮入口'!E11</f>
         <v>10</v>
@@ -7961,12 +7990,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -7981,13 +8010,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>53</v>
       </c>
     </row>

--- a/config_6.1/game_enter_btn_config.xlsx
+++ b/config_6.1/game_enter_btn_config.xlsx
@@ -1323,8 +1323,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1375,15 +1375,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1397,7 +1399,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1418,19 +1456,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1449,24 +1478,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1483,22 +1496,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1512,8 +1510,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1566,13 +1566,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1584,49 +1596,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1644,19 +1626,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1668,31 +1674,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1710,7 +1692,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1722,7 +1710,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1734,7 +1734,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1778,17 +1778,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1817,26 +1826,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1851,15 +1860,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1868,10 +1868,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1880,139 +1880,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2059,9 +2059,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2429,12 +2426,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2449,57 +2446,57 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2537,25 +2534,25 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2586,13 +2583,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2613,12 +2610,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2633,24 +2630,24 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2687,18 +2684,18 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="18"/>
+      <c r="A3" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2729,24 +2726,24 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2767,12 +2764,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2787,13 +2784,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2815,12 +2812,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -2835,13 +2832,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2878,13 +2875,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2925,18 +2922,18 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2947,7 +2944,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -2959,7 +2956,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2970,7 +2967,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2981,7 +2978,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -2992,7 +2989,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="18">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -3003,7 +3000,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="23">
+      <c r="A9" s="22">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -3050,13 +3047,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3130,7 +3127,7 @@
       <c r="C9" s="5"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="16.5" spans="2:3">
-      <c r="B10" s="22"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="12"/>
     </row>
     <row r="11" spans="3:3">
@@ -3154,12 +3151,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -3174,61 +3171,61 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" ht="15"/>
     <row r="18" ht="15.75" spans="10:10">
-      <c r="J18" s="28"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" ht="15"/>
   </sheetData>
@@ -3261,13 +3258,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3300,13 +3297,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3339,13 +3336,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3379,13 +3376,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3421,29 +3418,29 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -6086,7 +6083,7 @@
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="17" t="s">
+      <c r="B141" s="16" t="s">
         <v>368</v>
       </c>
       <c r="C141">
@@ -6136,53 +6133,53 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="19"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="23">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6203,12 +6200,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -6223,55 +6220,55 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6298,7 +6295,7 @@
     <col min="3" max="3" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="24" customFormat="1" ht="35.25" customHeight="1" spans="1:3">
+    <row r="1" s="23" customFormat="1" ht="35.25" customHeight="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6337,12 +6334,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -6357,13 +6354,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6397,12 +6394,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -6417,44 +6414,44 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:3">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6468,20 +6465,20 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J140"/>
+  <dimension ref="A1:J142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="43.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="43.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:5">
@@ -6502,13 +6499,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="5">
@@ -6521,13 +6518,13 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="5">
@@ -6544,13 +6541,13 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="5">
@@ -6563,13 +6560,13 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>44</v>
       </c>
       <c r="D5" s="5">
@@ -6583,13 +6580,13 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="5">
@@ -6602,13 +6599,13 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="5">
@@ -6621,13 +6618,13 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="18">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="5">
@@ -6640,13 +6637,13 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="18">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="5">
@@ -6659,7 +6656,7 @@
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="19"/>
+      <c r="B10" s="18"/>
       <c r="D10" s="5">
         <f>'all_enter|所有按钮入口'!E10</f>
         <v>9</v>
@@ -6670,8 +6667,8 @@
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="5">
         <f>'all_enter|所有按钮入口'!E11</f>
         <v>10</v>
@@ -7970,6 +7967,19 @@
         <f>'all_enter|所有按钮入口'!F140</f>
         <v>疯狂返利</v>
       </c>
+    </row>
+    <row r="141" spans="4:5">
+      <c r="D141" s="5">
+        <f>'all_enter|所有按钮入口'!E141</f>
+        <v>140</v>
+      </c>
+      <c r="E141" s="5" t="str">
+        <f>'all_enter|所有按钮入口'!F141</f>
+        <v>通行证</v>
+      </c>
+    </row>
+    <row r="142" spans="5:5">
+      <c r="E142" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7990,12 +8000,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:3">
@@ -8010,13 +8020,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>53</v>
       </c>
     </row>
